--- a/biology/Médecine/Elyes_Ben_Miled/Elyes_Ben_Miled.xlsx
+++ b/biology/Médecine/Elyes_Ben_Miled/Elyes_Ben_Miled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elyes Ben Miled (arabe : إلياس بن ميلاد), né en 1956 à Tunis, est un gynécologue tunisien.
 Il est le pionnier de la fécondation in vitro en Tunisie, ayant abouti à la naissance du petit Elyes le 21 mars 1988, réalisant ainsi une première scientifique tunisienne, maghrébine et africaine, dix ans seulement après la première mondiale au Royaume-Uni.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après être passé au lycée Carnot de Tunis, il poursuit ses études à la faculté de médecine de Tunis où il obtient le titre de médecin spécialiste en gynécologie-obstétrique. Titulaire d'un DEA en génétique humaine et des populations et diplômé en démographie et planification familiale et en biologie de la reproduction de la faculté de médecine de l'université Paris-Saclay au Kremlin-Bicêtre, il fait ses premières armes dans le domaine de la fécondation in vitro auprès du professeur Salat-Baroux à l'Hôpital Tenon de Paris.
 Il est vice-président de la Société tunisienne de fertilité et stérilité et exerce actuellement dans le secteur privé.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les aspects cliniques et biologiques de la fécondation in vitro en Tunisie paru en 1988 et proposé au Prix maghrébin des sciences médicales du président de la République</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nadia Omrane, « Médecine : le premier bébé-éprouvette tunisien a 20 ans », sur alternatives-citoyennes.sgdg.org, 14 mai 2008 (consulté le 27 décembre 2020).
